--- a/3 задача.xlsx
+++ b/3 задача.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -86,6 +86,84 @@
   </si>
   <si>
     <t>maxPower</t>
+  </si>
+  <si>
+    <t>devices</t>
+  </si>
+  <si>
+    <t>rates</t>
+  </si>
+  <si>
+    <t>schedule</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
   </si>
 </sst>
 </file>
@@ -149,12 +227,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -459,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -479,123 +560,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="A1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
       <c r="M1" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="4">
-        <v>950</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="4">
-        <v>7</v>
-      </c>
-      <c r="I2" s="4">
-        <v>10</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="4">
         <v>2100</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4">
-        <v>2000</v>
+        <v>950</v>
       </c>
       <c r="D3" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4">
+        <v>7</v>
+      </c>
+      <c r="I3" s="4">
         <v>10</v>
       </c>
-      <c r="H3" s="4">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4">
-        <v>17</v>
-      </c>
       <c r="J3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="D4" s="4">
-        <v>24</v>
-      </c>
-      <c r="E4" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H4" s="4">
+        <v>10</v>
+      </c>
+      <c r="I4" s="4">
         <v>17</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4">
         <v>50</v>
@@ -605,40 +676,188 @@
       </c>
       <c r="E5" s="4"/>
       <c r="H5" s="4">
+        <v>17</v>
+      </c>
+      <c r="I5" s="4">
         <v>21</v>
       </c>
-      <c r="I5" s="4">
-        <v>23</v>
-      </c>
       <c r="J5" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="4">
-        <v>850</v>
+        <v>50</v>
       </c>
       <c r="D6" s="4">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4"/>
       <c r="H6" s="4">
+        <v>21</v>
+      </c>
+      <c r="I6" s="4">
         <v>23</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4">
+        <v>850</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="H7" s="4">
+        <v>23</v>
+      </c>
+      <c r="I7" s="4">
         <v>7</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/3 задача.xlsx
+++ b/3 задача.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$O$9:$Q$12</definedName>
+  </definedNames>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -192,12 +195,42 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -227,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -236,6 +269,14 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -540,26 +581,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="9.140625" style="1"/>
+    <col min="3" max="3" width="11.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="1" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="14" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="1" customWidth="1"/>
     <col min="11" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="12.140625" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="18" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>24</v>
       </c>
@@ -575,8 +620,23 @@
       <c r="M1" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -608,8 +668,23 @@
       <c r="M2" s="4">
         <v>2100</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="O2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>2000</v>
+      </c>
+      <c r="R2" s="4">
+        <v>2</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -634,8 +709,26 @@
       <c r="J3" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>950</v>
+      </c>
+      <c r="R3" s="4">
+        <v>3</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -660,8 +753,24 @@
       <c r="J4" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>850</v>
+      </c>
+      <c r="R4" s="4">
+        <v>1</v>
+      </c>
+      <c r="S4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -684,8 +793,24 @@
       <c r="J5" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>50</v>
+      </c>
+      <c r="R5" s="4">
+        <v>24</v>
+      </c>
+      <c r="S5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>13</v>
       </c>
@@ -708,8 +833,24 @@
       <c r="J6" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>50</v>
+      </c>
+      <c r="R6" s="4">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
@@ -732,128 +873,415 @@
       <c r="J7" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O10" s="4">
+        <v>10</v>
+      </c>
+      <c r="P10" s="4">
+        <v>17</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O11" s="4">
+        <v>7</v>
+      </c>
+      <c r="P11" s="4">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O12" s="4">
+        <v>17</v>
+      </c>
+      <c r="P12" s="4">
+        <v>21</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O14" s="4">
+        <v>23</v>
+      </c>
+      <c r="P14" s="4">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O15" s="4">
+        <v>21</v>
+      </c>
+      <c r="P15" s="4">
+        <v>23</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="B18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="B19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="B20" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="F20" s="11"/>
+      <c r="O20" s="13">
+        <f>100+950+850</f>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="B21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="B22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="B23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="B24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="F24" s="12"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="6" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="B26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="B28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="B29" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="B30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="B31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="B32" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="B33" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="B34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="F34" s="12"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="B35" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="F35" s="12"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="B36" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="6"/>
+      <c r="F36" s="12"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="B37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="B38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
         <v>49</v>
       </c>
+      <c r="B39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="11"/>
     </row>
   </sheetData>
+  <sortState ref="O10:Q12">
+    <sortCondition descending="1" ref="Q2:Q6"/>
+  </sortState>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="H1:J1"/>

--- a/3 задача.xlsx
+++ b/3 задача.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -167,6 +167,9 @@
   </si>
   <si>
     <t>23</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
 </sst>
 </file>
@@ -266,9 +269,6 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -277,6 +277,9 @@
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -581,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -605,18 +608,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="H1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
       <c r="M1" s="3" t="s">
         <v>23</v>
       </c>
@@ -964,319 +967,332 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="B17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="11"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="B18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="11"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="B19" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="11"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="8"/>
-      <c r="F20" s="11"/>
-      <c r="O20" s="13">
+      <c r="B20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="F20" s="10"/>
+      <c r="O20" s="12">
         <f>100+950+850</f>
         <v>1900</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="8"/>
-      <c r="F21" s="11"/>
+      <c r="B21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D22" s="8"/>
-      <c r="F22" s="11"/>
+      <c r="B22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="6"/>
-      <c r="F23" s="12"/>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="6" t="s">
+      <c r="B24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="6"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
+      <c r="B25" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="6"/>
-      <c r="F25" s="12"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="6" t="s">
+      <c r="B26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="B27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="6" t="s">
+      <c r="F27" s="9"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="B28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="6" t="s">
+      <c r="B29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29" s="6"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="B30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="F30" s="9"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D30" s="6"/>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="6" t="s">
+      <c r="B31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31" s="6"/>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="6" t="s">
+      <c r="B32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="F32" s="9"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="6" t="s">
+      <c r="B33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="F33" s="9"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D33" s="6"/>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
+      <c r="B34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="s">
+      <c r="B35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
+      <c r="B36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
+      <c r="B37" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="8"/>
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="8" t="s">
+      <c r="B38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" s="7"/>
+      <c r="F38" s="9"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="8" t="s">
+      <c r="B39" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="7"/>
+      <c r="F39" s="9"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D39" s="9" t="s">
+      <c r="B40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="11"/>
+      <c r="F40" s="10"/>
     </row>
   </sheetData>
   <sortState ref="O10:Q12">
